--- a/biology/Zoologie/Baltocteniza_kulickae/Baltocteniza_kulickae.xlsx
+++ b/biology/Zoologie/Baltocteniza_kulickae/Baltocteniza_kulickae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baltocteniza
 Baltocteniza kulickae, unique représentant du genre Baltocteniza, est une espèce fossile d'araignées mygalomorphes de la famille des Ctenizidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, en Pologne[1]. Elle date du Paléogène[2], de l'Éocène supérieur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, en Pologne. Elle date du Paléogène, de l'Éocène supérieur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle subadulte holotype mesure 3,38 mm[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle subadulte holotype mesure 3,38 mm
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Eskov et Zonstein en 2000 dans les Ctenizidae.
 Cette espèce a été décrite par Eskov et Zonstein en 2000.
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Róża Kulicka[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Róża Kulicka.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Eskov &amp; Zonstein, 2000 : « The first Ctenizoid Mygalomorph Spiders from Eocene Baltic amber (Araneida: Mygalomorphae: Ctenizidae). » Paleontological Journal, vol. 34, suppl. 3, p. 268–274 (texte intégral a &amp; b).</t>
         </is>
